--- a/data/trans_orig/P1404-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P1404-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>30211</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>20085</v>
+        <v>20923</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>42195</v>
+        <v>44290</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06376537074386705</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04239330074440274</v>
+        <v>0.04416153243581002</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.089060342652603</v>
+        <v>0.09348287768900544</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>20</v>
@@ -765,19 +765,19 @@
         <v>21556</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>14006</v>
+        <v>13204</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>32889</v>
+        <v>32071</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07028916325476922</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04567113285693027</v>
+        <v>0.04305381107074073</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1072419181778736</v>
+        <v>0.1045759527489609</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>50</v>
@@ -786,19 +786,19 @@
         <v>51767</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>40078</v>
+        <v>37822</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>68884</v>
+        <v>67252</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06632889397582259</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05135207562467156</v>
+        <v>0.04846105389291411</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08826079102755029</v>
+        <v>0.08617003738814859</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>443565</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>431581</v>
+        <v>429486</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>453691</v>
+        <v>452853</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.936234629256133</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.910939657347397</v>
+        <v>0.9065171223109942</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9576066992555975</v>
+        <v>0.95583846756419</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>278</v>
@@ -836,19 +836,19 @@
         <v>285124</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>273791</v>
+        <v>274609</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>292674</v>
+        <v>293476</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9297108367452308</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8927580818221266</v>
+        <v>0.8954240472510392</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9543288671430697</v>
+        <v>0.9569461889292593</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>703</v>
@@ -857,19 +857,19 @@
         <v>728690</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>711573</v>
+        <v>713205</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>740379</v>
+        <v>742635</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9336711060241775</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9117392089724496</v>
+        <v>0.9138299626118513</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9486479243753284</v>
+        <v>0.9515389461070859</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>29976</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>20908</v>
+        <v>20617</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>42400</v>
+        <v>41352</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08169436444967124</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05697949838138497</v>
+        <v>0.05618845864748616</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1155533365309029</v>
+        <v>0.1126949119606881</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>22</v>
@@ -982,19 +982,19 @@
         <v>23172</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>15161</v>
+        <v>15611</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>33695</v>
+        <v>33800</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06231413838902507</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04077111582576289</v>
+        <v>0.04197896059791726</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09061004812114305</v>
+        <v>0.09089224069805196</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>52</v>
@@ -1003,19 +1003,19 @@
         <v>53149</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>40002</v>
+        <v>40046</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>68452</v>
+        <v>69617</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07193957985283735</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05414467978392762</v>
+        <v>0.05420438264832692</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09265284988285513</v>
+        <v>0.0942297486398521</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>336958</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>324534</v>
+        <v>325582</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>346026</v>
+        <v>346317</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9183056355503287</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8844466634690945</v>
+        <v>0.8873050880393119</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9430205016186149</v>
+        <v>0.9438115413525139</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>341</v>
@@ -1053,19 +1053,19 @@
         <v>348693</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>338170</v>
+        <v>338065</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>356704</v>
+        <v>356254</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9376858616109749</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9093899518788569</v>
+        <v>0.909107759301948</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9592288841742371</v>
+        <v>0.9580210394020827</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>661</v>
@@ -1074,19 +1074,19 @@
         <v>685650</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>670347</v>
+        <v>669182</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>698797</v>
+        <v>698753</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9280604201471626</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9073471501171447</v>
+        <v>0.9057702513601481</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9458553202160722</v>
+        <v>0.9457956173516733</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>56690</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>42990</v>
+        <v>42956</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>72560</v>
+        <v>72059</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1045193584079927</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07925988494964709</v>
+        <v>0.07919700589833338</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1337788743998429</v>
+        <v>0.1328544615492085</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>16</v>
@@ -1199,19 +1199,19 @@
         <v>15785</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9623</v>
+        <v>9489</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>25663</v>
+        <v>24364</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09408318106455399</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05735423873436386</v>
+        <v>0.05655590714813209</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1529558134592657</v>
+        <v>0.145213634376016</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>72</v>
@@ -1220,19 +1220,19 @@
         <v>72476</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>56918</v>
+        <v>58720</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>88746</v>
+        <v>90586</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1020537526059148</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08014643095666713</v>
+        <v>0.08268475256425759</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1249648757154338</v>
+        <v>0.1275551894010034</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>485699</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>469829</v>
+        <v>470330</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>499399</v>
+        <v>499433</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8954806415920072</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.866221125600157</v>
+        <v>0.8671455384507913</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9207401150503528</v>
+        <v>0.9208029941016665</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>148</v>
@@ -1270,19 +1270,19 @@
         <v>151997</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>142119</v>
+        <v>143418</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>158159</v>
+        <v>158293</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.905916818935446</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8470441865407352</v>
+        <v>0.8547863656239845</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9426457612656363</v>
+        <v>0.9434440928518679</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>624</v>
@@ -1291,19 +1291,19 @@
         <v>637695</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>621425</v>
+        <v>619585</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>653253</v>
+        <v>651451</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8979462473940851</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8750351242845662</v>
+        <v>0.8724448105989966</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9198535690433328</v>
+        <v>0.9173152474357427</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>112099</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>92448</v>
+        <v>92819</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>132303</v>
+        <v>132251</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09052368930569485</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07465487842295648</v>
+        <v>0.07495502166519688</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1068392257312519</v>
+        <v>0.1067971280001861</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>55</v>
@@ -1416,19 +1416,19 @@
         <v>54400</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>41851</v>
+        <v>41812</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>70841</v>
+        <v>69195</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07615943938513807</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05859095868208367</v>
+        <v>0.0585372534947863</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09917786284194816</v>
+        <v>0.09687266078456161</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>173</v>
@@ -1437,19 +1437,19 @@
         <v>166498</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>142805</v>
+        <v>144963</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>189414</v>
+        <v>193936</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08526912138523239</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07313519065556968</v>
+        <v>0.07424041838900307</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09700499051648681</v>
+        <v>0.09932106049008671</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>1126235</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1106031</v>
+        <v>1106083</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1145886</v>
+        <v>1145515</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9094763106943051</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8931607742687483</v>
+        <v>0.8932028719998143</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9253451215770435</v>
+        <v>0.9250449783348035</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>639</v>
@@ -1487,19 +1487,19 @@
         <v>659885</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>643444</v>
+        <v>645090</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>672434</v>
+        <v>672473</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.923840560614862</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9008221371580516</v>
+        <v>0.9031273392154388</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9414090413179159</v>
+        <v>0.9414627465052138</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1745</v>
@@ -1508,19 +1508,19 @@
         <v>1786122</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1763206</v>
+        <v>1758684</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1809815</v>
+        <v>1807657</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9147308786147677</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9029950094835132</v>
+        <v>0.9006789395099133</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9268648093444303</v>
+        <v>0.9257595816109969</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>26888</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>18199</v>
+        <v>18579</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>37626</v>
+        <v>37565</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07670098087064182</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05191343024561278</v>
+        <v>0.05299802620673207</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1073314794832906</v>
+        <v>0.1071583689900978</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>58</v>
@@ -1633,19 +1633,19 @@
         <v>61784</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>49277</v>
+        <v>48306</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>77467</v>
+        <v>78628</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1086309275988008</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08664100627790511</v>
+        <v>0.08493359345525614</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1362057269763365</v>
+        <v>0.1382462356236412</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>87</v>
@@ -1654,19 +1654,19 @@
         <v>88672</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>72959</v>
+        <v>71446</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>108414</v>
+        <v>108419</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09645522379129996</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07936343878949381</v>
+        <v>0.07771754999139723</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1179305798896396</v>
+        <v>0.1179360271015013</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>323667</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>312929</v>
+        <v>312990</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>332356</v>
+        <v>331976</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9232990191293582</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8926685205167094</v>
+        <v>0.8928416310099022</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9480865697543872</v>
+        <v>0.9470019737932679</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>481</v>
@@ -1704,19 +1704,19 @@
         <v>506968</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>491285</v>
+        <v>490124</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>519475</v>
+        <v>520446</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8913690724011992</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8637942730236635</v>
+        <v>0.861753764376359</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9133589937220947</v>
+        <v>0.9150664065447439</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>792</v>
@@ -1725,19 +1725,19 @@
         <v>830635</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>810893</v>
+        <v>810888</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>846348</v>
+        <v>847861</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9035447762087</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8820694201103602</v>
+        <v>0.8820639728984987</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9206365612105061</v>
+        <v>0.9222824500086029</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>2933</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7971</v>
+        <v>7982</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.009835198198479297</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.003055327080775238</v>
+        <v>0.003063646373653107</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02672867840164754</v>
+        <v>0.02676816704976252</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>164</v>
@@ -1850,19 +1850,19 @@
         <v>171484</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>148705</v>
+        <v>148565</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>197494</v>
+        <v>198464</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1373230474401314</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1190817341697813</v>
+        <v>0.1189700258100576</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1581518804898247</v>
+        <v>0.1589288926144204</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>167</v>
@@ -1871,19 +1871,19 @@
         <v>174416</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>151334</v>
+        <v>148134</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>201193</v>
+        <v>199313</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1127477918710058</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09782699132974224</v>
+        <v>0.09575791269750002</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1300570831409391</v>
+        <v>0.1288417487063821</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>295268</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>290230</v>
+        <v>290219</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>297290</v>
+        <v>297287</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9901648018015207</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9732713215983525</v>
+        <v>0.9732318329502366</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9969446729192247</v>
+        <v>0.9969363536263469</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1074</v>
@@ -1921,19 +1921,19 @@
         <v>1077276</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1051266</v>
+        <v>1050296</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1100055</v>
+        <v>1100195</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8626769525598686</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8418481195101754</v>
+        <v>0.8410711073855797</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8809182658302187</v>
+        <v>0.8810299741899423</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1377</v>
@@ -1942,19 +1942,19 @@
         <v>1372544</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1345767</v>
+        <v>1347647</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1395626</v>
+        <v>1398826</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8872522081289942</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8699429168590604</v>
+        <v>0.8711582512936179</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9021730086702576</v>
+        <v>0.9042420873025</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>258797</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>228573</v>
+        <v>230054</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>288689</v>
+        <v>292748</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07913807810536681</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06989604824352942</v>
+        <v>0.07034895979291346</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08827908384125757</v>
+        <v>0.08952002901027546</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>335</v>
@@ -2067,19 +2067,19 @@
         <v>348181</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>312308</v>
+        <v>313540</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>385948</v>
+        <v>383620</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1030694252252493</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.09245016766970088</v>
+        <v>0.09281474837610709</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1142492696904392</v>
+        <v>0.1135601160255567</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>601</v>
@@ -2088,19 +2088,19 @@
         <v>606978</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>563264</v>
+        <v>561584</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>656472</v>
+        <v>653031</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.09129801193459405</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.08472281094696801</v>
+        <v>0.08447008698349083</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09874268874950601</v>
+        <v>0.09822512467756869</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>3011393</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2981501</v>
+        <v>2977442</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3041617</v>
+        <v>3040136</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9208619218946332</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9117209161587424</v>
+        <v>0.9104799709897247</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9301039517564708</v>
+        <v>0.9296510402070866</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2961</v>
@@ -2138,19 +2138,19 @@
         <v>3029943</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2992176</v>
+        <v>2994504</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3065816</v>
+        <v>3064584</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8969305747747507</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8857507303095608</v>
+        <v>0.8864398839744434</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9075498323302991</v>
+        <v>0.9071852516238929</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5902</v>
@@ -2159,19 +2159,19 @@
         <v>6041336</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5991842</v>
+        <v>5995283</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6085050</v>
+        <v>6086730</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9087019880654059</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.901257311250494</v>
+        <v>0.9017748753224312</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.915277189053032</v>
+        <v>0.9155299130165092</v>
       </c>
     </row>
     <row r="24">
@@ -2505,19 +2505,19 @@
         <v>41351</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>29258</v>
+        <v>30221</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>57333</v>
+        <v>58206</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09458007601236529</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06691982155460698</v>
+        <v>0.06912235086826907</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1311330425502228</v>
+        <v>0.1331308728444223</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>18</v>
@@ -2526,19 +2526,19 @@
         <v>19855</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>11441</v>
+        <v>12619</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>30512</v>
+        <v>30973</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06314117451911944</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03638340847259072</v>
+        <v>0.04012842781862205</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09703207896815307</v>
+        <v>0.09849732393717868</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>53</v>
@@ -2547,19 +2547,19 @@
         <v>61206</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>46709</v>
+        <v>45894</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>78674</v>
+        <v>76695</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08142781286299337</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06214129887638929</v>
+        <v>0.06105635078376286</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1046664213785863</v>
+        <v>0.1020340076750542</v>
       </c>
     </row>
     <row r="5">
@@ -2576,19 +2576,19 @@
         <v>395860</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>379878</v>
+        <v>379005</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>407953</v>
+        <v>406990</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9054199239876347</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8688669574497772</v>
+        <v>0.8668691271555776</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.933080178445393</v>
+        <v>0.9308776491317309</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>265</v>
@@ -2597,19 +2597,19 @@
         <v>294599</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>283942</v>
+        <v>283481</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>303013</v>
+        <v>301835</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9368588254808806</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9029679210318472</v>
+        <v>0.9015026760628216</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9636165915274094</v>
+        <v>0.9598715721813781</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>634</v>
@@ -2618,19 +2618,19 @@
         <v>690459</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>672991</v>
+        <v>674970</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>704956</v>
+        <v>705771</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9185721871370066</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8953335786214137</v>
+        <v>0.8979659923249458</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9378587011236108</v>
+        <v>0.9389436492162372</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>37322</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>26940</v>
+        <v>26266</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>50699</v>
+        <v>50194</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08911745602568236</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06432753364022176</v>
+        <v>0.06271673343954941</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.121057777993852</v>
+        <v>0.1198531022402853</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>22</v>
@@ -2743,19 +2743,19 @@
         <v>24975</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>16496</v>
+        <v>16498</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>35980</v>
+        <v>36724</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07388876809540451</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0488019702082292</v>
+        <v>0.04880977039801326</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1064468374702585</v>
+        <v>0.1086479699241176</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>57</v>
@@ -2764,19 +2764,19 @@
         <v>62297</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>47891</v>
+        <v>48610</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>78847</v>
+        <v>79773</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08231590906305543</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06327963785728381</v>
+        <v>0.06423063228968534</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1041837572106459</v>
+        <v>0.1054073186273126</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>381475</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>368098</v>
+        <v>368603</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>391857</v>
+        <v>392531</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9108825439743177</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.878942222006148</v>
+        <v>0.8801468977597146</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9356724663597785</v>
+        <v>0.9372832665604506</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>283</v>
@@ -2814,19 +2814,19 @@
         <v>313036</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>302031</v>
+        <v>301287</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>321515</v>
+        <v>321513</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9261112319045955</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8935531625297415</v>
+        <v>0.8913520300758824</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9511980297917708</v>
+        <v>0.9511902296019867</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>623</v>
@@ -2835,19 +2835,19 @@
         <v>694511</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>677961</v>
+        <v>677035</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>708917</v>
+        <v>708198</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9176840909369446</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8958162427893538</v>
+        <v>0.8945926813726873</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9367203621427161</v>
+        <v>0.9357693677103146</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>86584</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>68856</v>
+        <v>69738</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>106349</v>
+        <v>106306</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1378705710642779</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1096428179760828</v>
+        <v>0.1110473828201919</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1693441164232851</v>
+        <v>0.1692747703894506</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>22</v>
@@ -2960,19 +2960,19 @@
         <v>22731</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>14533</v>
+        <v>14470</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>32713</v>
+        <v>32869</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08738542297546065</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05586807736462879</v>
+        <v>0.05562449754113201</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1257560278471358</v>
+        <v>0.1263556562437161</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>99</v>
@@ -2981,19 +2981,19 @@
         <v>109315</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>90257</v>
+        <v>90685</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>130230</v>
+        <v>133743</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1230837863237129</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1016249347038179</v>
+        <v>0.1021067405445863</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1466324944493377</v>
+        <v>0.1505888502421731</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>541422</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>521657</v>
+        <v>521700</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>559150</v>
+        <v>558268</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8621294289357221</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8306558835767149</v>
+        <v>0.8307252296105497</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8903571820239174</v>
+        <v>0.8889526171798082</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>222</v>
@@ -3031,19 +3031,19 @@
         <v>237398</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>227416</v>
+        <v>227260</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>245596</v>
+        <v>245659</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9126145770245394</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8742439721528642</v>
+        <v>0.873644343756284</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9441319226353712</v>
+        <v>0.944375502458868</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>735</v>
@@ -3052,19 +3052,19 @@
         <v>778821</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>757906</v>
+        <v>754393</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>797879</v>
+        <v>797451</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8769162136762871</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8533675055506623</v>
+        <v>0.8494111497578269</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8983750652961822</v>
+        <v>0.8978932594554137</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>154669</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>132267</v>
+        <v>130725</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>181211</v>
+        <v>179989</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.133449389280748</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1141208481414171</v>
+        <v>0.1127902384859148</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1563497546508701</v>
+        <v>0.1552959291041991</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>66</v>
@@ -3177,19 +3177,19 @@
         <v>72917</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>57262</v>
+        <v>56329</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>90567</v>
+        <v>91521</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09535071570818383</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07487975067964643</v>
+        <v>0.07366008147878733</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1184316352158841</v>
+        <v>0.1196788930047949</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>206</v>
@@ -3198,19 +3198,19 @@
         <v>227586</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>198661</v>
+        <v>198345</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>256893</v>
+        <v>258413</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1183043952493528</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1032688400283871</v>
+        <v>0.1031041410383366</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1335390413802223</v>
+        <v>0.1343291358279713</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>1004340</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>977798</v>
+        <v>979020</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1026742</v>
+        <v>1028284</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.866550610719252</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8436502453491301</v>
+        <v>0.8447040708958009</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.885879151858583</v>
+        <v>0.8872097615140854</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>644</v>
@@ -3248,19 +3248,19 @@
         <v>691805</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>674155</v>
+        <v>673201</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>707460</v>
+        <v>708393</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9046492842918161</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.881568364784116</v>
+        <v>0.880321106995205</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9251202493203536</v>
+        <v>0.9263399185212128</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1587</v>
@@ -3269,19 +3269,19 @@
         <v>1696145</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1666838</v>
+        <v>1665318</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1725070</v>
+        <v>1725386</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8816956047506472</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8664609586197777</v>
+        <v>0.8656708641720293</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8967311599716129</v>
+        <v>0.8968958589616635</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>64893</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>50386</v>
+        <v>50337</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>79612</v>
+        <v>83272</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1270933225010542</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09868030584246468</v>
+        <v>0.09858541199515787</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1559198927679353</v>
+        <v>0.1630884521177185</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>123</v>
@@ -3394,19 +3394,19 @@
         <v>133744</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>113060</v>
+        <v>113392</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>158055</v>
+        <v>159866</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1759224237253665</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1487154662015986</v>
+        <v>0.149151135902379</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.207899222239997</v>
+        <v>0.2102816734546626</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>183</v>
@@ -3415,19 +3415,19 @@
         <v>198638</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>172814</v>
+        <v>170558</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>228374</v>
+        <v>224900</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1563039770241346</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1359837203096106</v>
+        <v>0.1342082700466784</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1797028740659037</v>
+        <v>0.1769687702920142</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>445703</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>430984</v>
+        <v>427324</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>460210</v>
+        <v>460259</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8729066774989458</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8440801072320649</v>
+        <v>0.8369115478822816</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9013196941575354</v>
+        <v>0.9014145880048424</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>579</v>
@@ -3465,19 +3465,19 @@
         <v>626502</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>602191</v>
+        <v>600380</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>647186</v>
+        <v>646854</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8240775762746335</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7921007777600031</v>
+        <v>0.7897183265453377</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8512845337984015</v>
+        <v>0.8508488640976212</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1006</v>
@@ -3486,19 +3486,19 @@
         <v>1072205</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1042469</v>
+        <v>1045943</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1098029</v>
+        <v>1100285</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8436960229758654</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8202971259340963</v>
+        <v>0.8230312297079859</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8640162796903894</v>
+        <v>0.8657917299533215</v>
       </c>
     </row>
     <row r="18">
@@ -3590,19 +3590,19 @@
         <v>3854</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11535</v>
+        <v>11139</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0144411713897304</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.003488637859083081</v>
+        <v>0.00349599652927483</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04322036145102578</v>
+        <v>0.0417365834671064</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>201</v>
@@ -3611,19 +3611,19 @@
         <v>216617</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>188288</v>
+        <v>191534</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>243393</v>
+        <v>246450</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1952645239554224</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1697282758486306</v>
+        <v>0.1726545350631774</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2194014474890105</v>
+        <v>0.2221570170895198</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>204</v>
@@ -3632,19 +3632,19 @@
         <v>220471</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>196908</v>
+        <v>192274</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>252917</v>
+        <v>248388</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1601988931672302</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1430776351695111</v>
+        <v>0.1397101274384547</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1837747717362352</v>
+        <v>0.1804838569315782</v>
       </c>
     </row>
     <row r="20">
@@ -3661,19 +3661,19 @@
         <v>263028</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>255347</v>
+        <v>255743</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>265951</v>
+        <v>265949</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9855588286102696</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9567796385489743</v>
+        <v>0.958263416532894</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.996511362140917</v>
+        <v>0.9965040034707252</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>843</v>
@@ -3682,19 +3682,19 @@
         <v>892734</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>865958</v>
+        <v>862901</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>921063</v>
+        <v>917817</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8047354760445776</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7805985525109894</v>
+        <v>0.7778429829104802</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8302717241513693</v>
+        <v>0.8273454649368226</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1105</v>
@@ -3703,19 +3703,19 @@
         <v>1155762</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1123316</v>
+        <v>1127845</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1179325</v>
+        <v>1183959</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8398011068327698</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8162252282637648</v>
+        <v>0.8195161430684218</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.856922364830489</v>
+        <v>0.8602898725615453</v>
       </c>
     </row>
     <row r="21">
@@ -3807,19 +3807,19 @@
         <v>388674</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>351325</v>
+        <v>348717</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>429042</v>
+        <v>431474</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1136306124759322</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1027116156870832</v>
+        <v>0.1019492434182241</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.125432620376421</v>
+        <v>0.1261435241914356</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>452</v>
@@ -3828,19 +3828,19 @@
         <v>490840</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>448071</v>
+        <v>448966</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>535646</v>
+        <v>532227</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1383850363883632</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.126326882728087</v>
+        <v>0.126579223383773</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.151017293369918</v>
+        <v>0.1500536274898704</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>802</v>
@@ -3849,19 +3849,19 @@
         <v>879514</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>815930</v>
+        <v>819520</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>936974</v>
+        <v>931344</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1262323900162321</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.117106606693591</v>
+        <v>0.1176218001339644</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1344794566746383</v>
+        <v>0.1336714351252501</v>
       </c>
     </row>
     <row r="23">
@@ -3878,19 +3878,19 @@
         <v>3031827</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2991459</v>
+        <v>2989027</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3069176</v>
+        <v>3071784</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8863693875240678</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8745673796235789</v>
+        <v>0.8738564758085644</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8972883843129166</v>
+        <v>0.8980507565817758</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2836</v>
@@ -3899,19 +3899,19 @@
         <v>3056075</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3011269</v>
+        <v>3014688</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3098844</v>
+        <v>3097949</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8616149636116368</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.848982706630082</v>
+        <v>0.8499463725101295</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.873673117271913</v>
+        <v>0.873420776616227</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5690</v>
@@ -3920,19 +3920,19 @@
         <v>6087902</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6030442</v>
+        <v>6036072</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6151486</v>
+        <v>6147896</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8737676099837679</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8655205433253618</v>
+        <v>0.8663285648747503</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.882893393306409</v>
+        <v>0.8823781998660356</v>
       </c>
     </row>
     <row r="24">
@@ -4266,19 +4266,19 @@
         <v>44001</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>31200</v>
+        <v>32717</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>57958</v>
+        <v>59465</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1025450806764949</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07271135114972525</v>
+        <v>0.07624687778679831</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1350708585325549</v>
+        <v>0.1385834959232826</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>23</v>
@@ -4287,19 +4287,19 @@
         <v>28782</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>18325</v>
+        <v>18457</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>40778</v>
+        <v>43004</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08293321937116854</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05280258941802746</v>
+        <v>0.05318174891863456</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1174961324237631</v>
+        <v>0.1239103819150125</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>64</v>
@@ -4308,19 +4308,19 @@
         <v>72784</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>56999</v>
+        <v>54785</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>92529</v>
+        <v>91081</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09377561636066326</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07343797922759142</v>
+        <v>0.07058628934078309</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1192158950204101</v>
+        <v>0.1173500754697676</v>
       </c>
     </row>
     <row r="5">
@@ -4337,19 +4337,19 @@
         <v>385091</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>371134</v>
+        <v>369627</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>397892</v>
+        <v>396375</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8974549193235051</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.864929141467445</v>
+        <v>0.8614165040767173</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9272886488502747</v>
+        <v>0.9237531222132017</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>309</v>
@@ -4358,19 +4358,19 @@
         <v>318273</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>306277</v>
+        <v>304051</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>328730</v>
+        <v>328598</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9170667806288314</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8825038675762369</v>
+        <v>0.8760896180849874</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9471974105819725</v>
+        <v>0.9468182510813654</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>664</v>
@@ -4379,19 +4379,19 @@
         <v>703363</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>683618</v>
+        <v>685066</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>719148</v>
+        <v>721362</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9062243836393368</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8807841049795898</v>
+        <v>0.8826499245302325</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9265620207724086</v>
+        <v>0.929413710659217</v>
       </c>
     </row>
     <row r="6">
@@ -4483,19 +4483,19 @@
         <v>39869</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>28273</v>
+        <v>28650</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>55628</v>
+        <v>53057</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1056899196439707</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07495056593576199</v>
+        <v>0.0759482797911623</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1474656136621024</v>
+        <v>0.1406487663292402</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>28</v>
@@ -4504,19 +4504,19 @@
         <v>31977</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>21613</v>
+        <v>22117</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>43772</v>
+        <v>44594</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08589547262590173</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05805793792948764</v>
+        <v>0.05941120764045851</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.117579805668753</v>
+        <v>0.1197894137789818</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>65</v>
@@ -4525,19 +4525,19 @@
         <v>71846</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>55179</v>
+        <v>56397</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>89870</v>
+        <v>91195</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09585811057353713</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07362173183576193</v>
+        <v>0.0752466946101642</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1199067285616709</v>
+        <v>0.121674935051536</v>
       </c>
     </row>
     <row r="8">
@@ -4554,19 +4554,19 @@
         <v>337358</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>321599</v>
+        <v>324170</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>348954</v>
+        <v>348577</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8943100803560293</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8525343863378977</v>
+        <v>0.8593512336707598</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9250494340642383</v>
+        <v>0.9240517202088377</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>324</v>
@@ -4575,19 +4575,19 @@
         <v>340296</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>328501</v>
+        <v>327679</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>350660</v>
+        <v>350156</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9141045273740983</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8824201943312471</v>
+        <v>0.8802105862210194</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9419420620705127</v>
+        <v>0.9405887923595417</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>641</v>
@@ -4596,19 +4596,19 @@
         <v>677654</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>659630</v>
+        <v>658305</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>694321</v>
+        <v>693103</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9041418894264629</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8800932714383292</v>
+        <v>0.878325064948464</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9263782681642381</v>
+        <v>0.9247533053898358</v>
       </c>
     </row>
     <row r="9">
@@ -4700,19 +4700,19 @@
         <v>73267</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>58656</v>
+        <v>58185</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>91253</v>
+        <v>90837</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.140381865191608</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1123857085187021</v>
+        <v>0.1114830408967296</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1748432481010546</v>
+        <v>0.1740466353591721</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>18</v>
@@ -4721,19 +4721,19 @@
         <v>22377</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>14152</v>
+        <v>13706</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>33598</v>
+        <v>33850</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1346988381730865</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08519070319329816</v>
+        <v>0.08250341859993149</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2022483732106902</v>
+        <v>0.2037642446023753</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>89</v>
@@ -4742,19 +4742,19 @@
         <v>95644</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>76598</v>
+        <v>77446</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>115382</v>
+        <v>115313</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1390097281155698</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1113281780682038</v>
+        <v>0.1125612848108517</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1676969708217621</v>
+        <v>0.1675976261557615</v>
       </c>
     </row>
     <row r="11">
@@ -4771,19 +4771,19 @@
         <v>448647</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>430661</v>
+        <v>431077</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>463258</v>
+        <v>463729</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.859618134808392</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8251567518989453</v>
+        <v>0.8259533646408278</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8876142914812978</v>
+        <v>0.8885169591032701</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>135</v>
@@ -4792,19 +4792,19 @@
         <v>143746</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>132525</v>
+        <v>132273</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>151971</v>
+        <v>152417</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8653011618269135</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7977516267893098</v>
+        <v>0.7962357553976247</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9148092968067019</v>
+        <v>0.9174965814000684</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>566</v>
@@ -4813,19 +4813,19 @@
         <v>592392</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>572654</v>
+        <v>572723</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>611438</v>
+        <v>610590</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8609902718844302</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8323030291782378</v>
+        <v>0.8324023738442385</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8886718219317963</v>
+        <v>0.8874387151891483</v>
       </c>
     </row>
     <row r="12">
@@ -4917,19 +4917,19 @@
         <v>145232</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>124232</v>
+        <v>124039</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>173395</v>
+        <v>169021</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1263281888741386</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1080620906891225</v>
+        <v>0.1078941405117725</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1508260852385532</v>
+        <v>0.1470209892831358</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>73</v>
@@ -4938,19 +4938,19 @@
         <v>77948</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>61257</v>
+        <v>63726</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>95946</v>
+        <v>96447</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09438172487708885</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07417229796331748</v>
+        <v>0.07716113166311445</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1161749041080125</v>
+        <v>0.1167814710182656</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>216</v>
@@ -4959,19 +4959,19 @@
         <v>223179</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>196727</v>
+        <v>196512</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>252532</v>
+        <v>254547</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1129727733651093</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09958244081743665</v>
+        <v>0.09947381627730784</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1278308209291089</v>
+        <v>0.1288511756864646</v>
       </c>
     </row>
     <row r="14">
@@ -4988,19 +4988,19 @@
         <v>1004406</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>976243</v>
+        <v>980617</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1025406</v>
+        <v>1025599</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8736718111258613</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8491739147614468</v>
+        <v>0.8529790107168642</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8919379093108776</v>
+        <v>0.8921058594882275</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>725</v>
@@ -5009,19 +5009,19 @@
         <v>747928</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>729930</v>
+        <v>729429</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>764619</v>
+        <v>762150</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9056182751229112</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8838250958919873</v>
+        <v>0.8832185289817345</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9258277020366824</v>
+        <v>0.9228388683368857</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1685</v>
@@ -5030,19 +5030,19 @@
         <v>1752335</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1722982</v>
+        <v>1720967</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1778787</v>
+        <v>1779002</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8870272266348908</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.872169179070891</v>
+        <v>0.8711488243135352</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9004175591825631</v>
+        <v>0.9005261837226921</v>
       </c>
     </row>
     <row r="15">
@@ -5134,19 +5134,19 @@
         <v>81887</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>65770</v>
+        <v>67520</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>99053</v>
+        <v>100388</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1319251371913841</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1059600800411836</v>
+        <v>0.1087791775830738</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1595806679554949</v>
+        <v>0.1617315832160436</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>109</v>
@@ -5155,19 +5155,19 @@
         <v>120958</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>101543</v>
+        <v>100544</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>142538</v>
+        <v>143055</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1638449355905028</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1375462787266469</v>
+        <v>0.1361932791615123</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1930772383741926</v>
+        <v>0.1937773168732232</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>194</v>
@@ -5176,19 +5176,19 @@
         <v>202844</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>176319</v>
+        <v>176048</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>229227</v>
+        <v>232056</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1492654393410731</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1297461303600922</v>
+        <v>0.1295467388622787</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.168679575364951</v>
+        <v>0.1707608956272204</v>
       </c>
     </row>
     <row r="17">
@@ -5205,19 +5205,19 @@
         <v>538819</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>521653</v>
+        <v>520318</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>554936</v>
+        <v>553186</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8680748628086159</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8404193320445051</v>
+        <v>0.8382684167839568</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8940399199588166</v>
+        <v>0.8912208224169264</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>590</v>
@@ -5226,19 +5226,19 @@
         <v>617286</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>595706</v>
+        <v>595189</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>636701</v>
+        <v>637700</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8361550644094973</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8069227616258072</v>
+        <v>0.8062226831267768</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8624537212733532</v>
+        <v>0.8638067208384878</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1102</v>
@@ -5247,19 +5247,19 @@
         <v>1156106</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1129723</v>
+        <v>1126894</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1182631</v>
+        <v>1182902</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8507345606589268</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8313204246350491</v>
+        <v>0.8292391043727799</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8702538696399078</v>
+        <v>0.8704532611377215</v>
       </c>
     </row>
     <row r="18">
@@ -5351,19 +5351,19 @@
         <v>4542</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1133</v>
+        <v>1128</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11019</v>
+        <v>11171</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01581909692822847</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.003944011784054275</v>
+        <v>0.00392800716636424</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03837437725278003</v>
+        <v>0.0389039023926598</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>158</v>
@@ -5372,19 +5372,19 @@
         <v>185258</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>160479</v>
+        <v>159165</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>214892</v>
+        <v>214159</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1712144025615377</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1483135805383969</v>
+        <v>0.1470990837021065</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1986019516986541</v>
+        <v>0.1979241296426633</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>162</v>
@@ -5393,19 +5393,19 @@
         <v>189801</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>166089</v>
+        <v>164107</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>217952</v>
+        <v>218210</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1386245795592969</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1213065287607582</v>
+        <v>0.1198584352613502</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1591852540997536</v>
+        <v>0.1593740665362016</v>
       </c>
     </row>
     <row r="20">
@@ -5422,19 +5422,19 @@
         <v>282603</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>276126</v>
+        <v>275974</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>286012</v>
+        <v>286017</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9841809030717715</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9616256227472199</v>
+        <v>0.9610960976073399</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9960559882159458</v>
+        <v>0.9960719928336358</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>834</v>
@@ -5443,19 +5443,19 @@
         <v>896767</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>867133</v>
+        <v>867866</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>921546</v>
+        <v>922860</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8287855974384624</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.801398048301346</v>
+        <v>0.8020758703573366</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8516864194616031</v>
+        <v>0.8529009162978934</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1102</v>
@@ -5464,19 +5464,19 @@
         <v>1179369</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1151218</v>
+        <v>1150960</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1203081</v>
+        <v>1205063</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.861375420440703</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8408147459002464</v>
+        <v>0.8406259334637983</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8786934712392418</v>
+        <v>0.8801415647386498</v>
       </c>
     </row>
     <row r="21">
@@ -5568,19 +5568,19 @@
         <v>388798</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>353871</v>
+        <v>350898</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>429675</v>
+        <v>427423</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.114834705575819</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1045186287588261</v>
+        <v>0.1036403795551038</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1269079781847071</v>
+        <v>0.1262426735152159</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>409</v>
@@ -5589,19 +5589,19 @@
         <v>467299</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>427221</v>
+        <v>428306</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>510842</v>
+        <v>508390</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1323194727016386</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1209711672694193</v>
+        <v>0.1212783370751961</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1446489932015</v>
+        <v>0.1439548437779571</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>790</v>
@@ -5610,19 +5610,19 @@
         <v>856097</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>792653</v>
+        <v>804358</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>910952</v>
+        <v>915633</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1237614501613443</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1145896006154553</v>
+        <v>0.1162817176856105</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1316914489101079</v>
+        <v>0.1323681886078478</v>
       </c>
     </row>
     <row r="23">
@@ -5639,19 +5639,19 @@
         <v>2996924</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2956047</v>
+        <v>2958299</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3031851</v>
+        <v>3034824</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.885165294424181</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8730920218152929</v>
+        <v>0.8737573264847841</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8954813712411739</v>
+        <v>0.8963596204448961</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2917</v>
@@ -5660,19 +5660,19 @@
         <v>3064297</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3020754</v>
+        <v>3023206</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3104375</v>
+        <v>3103290</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8676805272983613</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8553510067985</v>
+        <v>0.856045156222043</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.879028832730581</v>
+        <v>0.8787216629248039</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5760</v>
@@ -5681,19 +5681,19 @@
         <v>6061221</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6006366</v>
+        <v>6001685</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6124665</v>
+        <v>6112960</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8762385498386557</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.868308551089892</v>
+        <v>0.8676318113921524</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8854103993845447</v>
+        <v>0.8837182823143895</v>
       </c>
     </row>
     <row r="24">
@@ -6027,19 +6027,19 @@
         <v>75808</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>61555</v>
+        <v>61289</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>91887</v>
+        <v>91960</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1376784012346657</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1117925418509556</v>
+        <v>0.1113095226781632</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.166879634915184</v>
+        <v>0.1670131287684402</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>106</v>
@@ -6048,19 +6048,19 @@
         <v>65830</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>53824</v>
+        <v>54122</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>78197</v>
+        <v>77176</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1347848825696802</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1102022099754717</v>
+        <v>0.1108126463946185</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1601045618384191</v>
+        <v>0.1580140489002921</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>197</v>
@@ -6069,19 +6069,19 @@
         <v>141639</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>122581</v>
+        <v>122258</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>161702</v>
+        <v>160215</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1363182603651319</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1179761318742477</v>
+        <v>0.1176653235683075</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1556280002158009</v>
+        <v>0.1541964261250205</v>
       </c>
     </row>
     <row r="5">
@@ -6098,19 +6098,19 @@
         <v>474810</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>458731</v>
+        <v>458658</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>489063</v>
+        <v>489329</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8623215987653344</v>
+        <v>0.8623215987653343</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8331203650848161</v>
+        <v>0.8329868712315598</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8882074581490446</v>
+        <v>0.8886904773218369</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>580</v>
@@ -6119,19 +6119,19 @@
         <v>422581</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>410214</v>
+        <v>411235</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>434587</v>
+        <v>434289</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.86521511743032</v>
+        <v>0.8652151174303199</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.839895438161581</v>
+        <v>0.8419859510997081</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8897977900245284</v>
+        <v>0.8891873536053816</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1043</v>
@@ -6140,19 +6140,19 @@
         <v>897390</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>877327</v>
+        <v>878814</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>916448</v>
+        <v>916771</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8636817396348683</v>
+        <v>0.8636817396348681</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8443719997841991</v>
+        <v>0.8458035738749797</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8820238681257524</v>
+        <v>0.8823346764316927</v>
       </c>
     </row>
     <row r="6">
@@ -6244,19 +6244,19 @@
         <v>78133</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>63274</v>
+        <v>63349</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>93622</v>
+        <v>94653</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1620761506459564</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1312535821149335</v>
+        <v>0.1314077325932126</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1942053572822272</v>
+        <v>0.196343579364682</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>78</v>
@@ -6265,19 +6265,19 @@
         <v>46421</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>37465</v>
+        <v>37554</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>57924</v>
+        <v>57463</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1100311692725871</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08880302386346837</v>
+        <v>0.08901526770478299</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1372982349385693</v>
+        <v>0.1362046685195304</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>170</v>
@@ -6286,19 +6286,19 @@
         <v>124553</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>105618</v>
+        <v>105542</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>142156</v>
+        <v>143114</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1377863546304849</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.116839114037123</v>
+        <v>0.1167555062205789</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1572591588798166</v>
+        <v>0.158318496151199</v>
       </c>
     </row>
     <row r="8">
@@ -6315,19 +6315,19 @@
         <v>403943</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>388454</v>
+        <v>387423</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>418802</v>
+        <v>418727</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8379238493540436</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8057946427177727</v>
+        <v>0.8036564206353182</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8687464178850663</v>
+        <v>0.8685922674067873</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>510</v>
@@ -6336,19 +6336,19 @@
         <v>375465</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>363962</v>
+        <v>364423</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>384421</v>
+        <v>384332</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.889968830727413</v>
+        <v>0.8899688307274128</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8627017650614304</v>
+        <v>0.8637953314804696</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9111969761365316</v>
+        <v>0.9109847322952169</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>898</v>
@@ -6357,19 +6357,19 @@
         <v>779408</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>761805</v>
+        <v>760847</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>798343</v>
+        <v>798419</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8622136453695151</v>
+        <v>0.8622136453695149</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8427408411201835</v>
+        <v>0.8416815038488011</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8831608859628768</v>
+        <v>0.8832444937794213</v>
       </c>
     </row>
     <row r="9">
@@ -6461,19 +6461,19 @@
         <v>81085</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>66221</v>
+        <v>67123</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>97012</v>
+        <v>97959</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1722488479238147</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1406739796857221</v>
+        <v>0.1425891474195539</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2060817747897338</v>
+        <v>0.2080948651152041</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>66</v>
@@ -6482,19 +6482,19 @@
         <v>36338</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>28524</v>
+        <v>29056</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>45086</v>
+        <v>46246</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1945048100868497</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1526800777656193</v>
+        <v>0.1555273668128152</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.241329158606965</v>
+        <v>0.2475388192465009</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>166</v>
@@ -6503,19 +6503,19 @@
         <v>117423</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>100369</v>
+        <v>100361</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>135993</v>
+        <v>135659</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1785720378985412</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1526370897020611</v>
+        <v>0.1526252911959325</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2068125821191324</v>
+        <v>0.2063052122412853</v>
       </c>
     </row>
     <row r="11">
@@ -6532,19 +6532,19 @@
         <v>389658</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>373731</v>
+        <v>372784</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>404522</v>
+        <v>403620</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8277511520761853</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7939182252102662</v>
+        <v>0.7919051348847959</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.859326020314278</v>
+        <v>0.8574108525804462</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>222</v>
@@ -6553,19 +6553,19 @@
         <v>150484</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>141736</v>
+        <v>140576</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>158298</v>
+        <v>157766</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8054951899131502</v>
+        <v>0.8054951899131503</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7586708413930351</v>
+        <v>0.7524611807534994</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8473199222343809</v>
+        <v>0.8444726331871849</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>609</v>
@@ -6574,19 +6574,19 @@
         <v>540143</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>521573</v>
+        <v>521907</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>557197</v>
+        <v>557205</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8214279621014589</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7931874178808677</v>
+        <v>0.7936947877587148</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.847362910297939</v>
+        <v>0.8473747088040675</v>
       </c>
     </row>
     <row r="12">
@@ -6678,19 +6678,19 @@
         <v>174357</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>152151</v>
+        <v>151376</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>199851</v>
+        <v>197843</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.1546363381331247</v>
+        <v>0.1546363381331248</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1349422214656818</v>
+        <v>0.1342549245043856</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1772466279018221</v>
+        <v>0.1754659882985356</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>195</v>
@@ -6699,19 +6699,19 @@
         <v>108587</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>95587</v>
+        <v>94493</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>125937</v>
+        <v>124004</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.1261775235574096</v>
+        <v>0.1261775235574097</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1110708024830153</v>
+        <v>0.1098000563069039</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1463372916110664</v>
+        <v>0.144090828634369</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>419</v>
@@ -6720,19 +6720,19 @@
         <v>282944</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>256277</v>
+        <v>255868</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>310741</v>
+        <v>311131</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1423174454378653</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1289038886626389</v>
+        <v>0.1286983338667816</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1562987551826656</v>
+        <v>0.1564950495017154</v>
       </c>
     </row>
     <row r="14">
@@ -6749,19 +6749,19 @@
         <v>953171</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>927677</v>
+        <v>929685</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>975377</v>
+        <v>976152</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8453636618668752</v>
+        <v>0.8453636618668754</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8227533720981779</v>
+        <v>0.8245340117014646</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8650577785343182</v>
+        <v>0.8657450754956146</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1034</v>
@@ -6770,19 +6770,19 @@
         <v>752006</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>734656</v>
+        <v>736589</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>765006</v>
+        <v>766100</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8738224764425903</v>
+        <v>0.8738224764425905</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8536627083889339</v>
+        <v>0.855909171365631</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8889291975169847</v>
+        <v>0.8901999436930959</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1923</v>
@@ -6791,19 +6791,19 @@
         <v>1705177</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1677380</v>
+        <v>1676990</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1731844</v>
+        <v>1732253</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8576825545621347</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8437012448173343</v>
+        <v>0.8435049504982844</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8710961113373612</v>
+        <v>0.8713016661332182</v>
       </c>
     </row>
     <row r="15">
@@ -6895,19 +6895,19 @@
         <v>84004</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>68133</v>
+        <v>68955</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>100937</v>
+        <v>99962</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1485274361530717</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1204666952649706</v>
+        <v>0.1219191629173951</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1784662151800391</v>
+        <v>0.1767433654347015</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>339</v>
@@ -6916,19 +6916,19 @@
         <v>182542</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>164871</v>
+        <v>164691</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>203048</v>
+        <v>201721</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.2205229877212509</v>
+        <v>0.2205229877212508</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1991743954526977</v>
+        <v>0.1989579516163122</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2452954723872896</v>
+        <v>0.2436925435533955</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>444</v>
@@ -6937,19 +6937,19 @@
         <v>266546</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>241320</v>
+        <v>242133</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>291076</v>
+        <v>290980</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.1912990760767981</v>
+        <v>0.191299076076798</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1731941301378775</v>
+        <v>0.1737779853927457</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2089039967386876</v>
+        <v>0.2088350344794344</v>
       </c>
     </row>
     <row r="17">
@@ -6966,19 +6966,19 @@
         <v>481574</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>464641</v>
+        <v>465616</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>497445</v>
+        <v>496623</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8514725638469283</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8215337848199609</v>
+        <v>0.8232566345652985</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8795333047350294</v>
+        <v>0.8780808370826051</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>946</v>
@@ -6987,19 +6987,19 @@
         <v>645228</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>624722</v>
+        <v>626049</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>662899</v>
+        <v>663079</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.7794770122787493</v>
+        <v>0.7794770122787492</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7547045276127103</v>
+        <v>0.7563074564466046</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8008256045473022</v>
+        <v>0.8010420483836876</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1386</v>
@@ -7008,19 +7008,19 @@
         <v>1126802</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1102272</v>
+        <v>1102368</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1152028</v>
+        <v>1151215</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8087009239232019</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7910960032613125</v>
+        <v>0.7911649655205657</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8268058698621229</v>
+        <v>0.8262220146072543</v>
       </c>
     </row>
     <row r="18">
@@ -7112,19 +7112,19 @@
         <v>5157</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1969</v>
+        <v>2172</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11557</v>
+        <v>12067</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0217374612721088</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.008300342072420332</v>
+        <v>0.009153929868135071</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04871482039012851</v>
+        <v>0.05086846447416704</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>273</v>
@@ -7133,19 +7133,19 @@
         <v>149622</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>131608</v>
+        <v>131615</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>168243</v>
+        <v>167754</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.1774464146380361</v>
+        <v>0.177446414638036</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1560830093857196</v>
+        <v>0.1560902301905629</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1995302292241692</v>
+        <v>0.1989499265095555</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>280</v>
@@ -7154,19 +7154,19 @@
         <v>154779</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>134830</v>
+        <v>136535</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>174242</v>
+        <v>173915</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1432575102162953</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1247940102982313</v>
+        <v>0.1263715627411886</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1612718121505488</v>
+        <v>0.1609690871361516</v>
       </c>
     </row>
     <row r="20">
@@ -7183,19 +7183,19 @@
         <v>232071</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>225671</v>
+        <v>225161</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>235259</v>
+        <v>235056</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9782625387278913</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9512851796098715</v>
+        <v>0.9491315355258328</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9916996579275795</v>
+        <v>0.990846070131865</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>884</v>
@@ -7204,19 +7204,19 @@
         <v>693573</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>674952</v>
+        <v>675441</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>711587</v>
+        <v>711580</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8225535853619641</v>
+        <v>0.8225535853619639</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8004697707758307</v>
+        <v>0.8010500734904444</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8439169906142803</v>
+        <v>0.8439097698094372</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>989</v>
@@ -7225,19 +7225,19 @@
         <v>925644</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>906181</v>
+        <v>906508</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>945593</v>
+        <v>943888</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.8567424897837048</v>
+        <v>0.8567424897837046</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8387281878494511</v>
+        <v>0.8390309128638488</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8752059897017684</v>
+        <v>0.8736284372588117</v>
       </c>
     </row>
     <row r="21">
@@ -7329,19 +7329,19 @@
         <v>498544</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>457129</v>
+        <v>458707</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>536471</v>
+        <v>540162</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1451883631599102</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1331275165036473</v>
+        <v>0.133586991260814</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1562337862251573</v>
+        <v>0.1573086783274474</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1057</v>
@@ -7350,19 +7350,19 @@
         <v>589341</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>554161</v>
+        <v>555122</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>627025</v>
+        <v>624177</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1624119764169317</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1527169824836912</v>
+        <v>0.1529820046598361</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1727972220673463</v>
+        <v>0.1720121852348297</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1676</v>
@@ -7371,19 +7371,19 @@
         <v>1087884</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1035057</v>
+        <v>1031910</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1140413</v>
+        <v>1141471</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.154037834917923</v>
+        <v>0.1540378349179229</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1465578246956624</v>
+        <v>0.146112165804673</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1614756303239577</v>
+        <v>0.1616254003570027</v>
       </c>
     </row>
     <row r="23">
@@ -7400,19 +7400,19 @@
         <v>2935227</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2897300</v>
+        <v>2893609</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2976642</v>
+        <v>2975064</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8548116368400899</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8437662137748426</v>
+        <v>0.8426913216725525</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8668724834963527</v>
+        <v>0.8664130087391859</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4176</v>
@@ -7421,19 +7421,19 @@
         <v>3039336</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3001652</v>
+        <v>3004500</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3074516</v>
+        <v>3073555</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8375880235830683</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8272027779326536</v>
+        <v>0.8279878147651702</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8472830175163086</v>
+        <v>0.8470179953401639</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6848</v>
@@ -7442,19 +7442,19 @@
         <v>5974564</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5922035</v>
+        <v>5920977</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6027391</v>
+        <v>6030538</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8459621650820771</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8385243696760424</v>
+        <v>0.8383745996429973</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8534421753043377</v>
+        <v>0.8538878341953271</v>
       </c>
     </row>
     <row r="24">
